--- a/ex_corr/резерв Tmp/tmpМаксимов.xlsx
+++ b/ex_corr/резерв Tmp/tmpМаксимов.xlsx
@@ -5,21 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VecheslavSP\Desktop\Python\Ros_accred\ex_corr\tmpXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unitess\TEMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
   </bookViews>
   <sheets>
-    <sheet name="export_230414_1855" sheetId="1" r:id="rId1"/>
+    <sheet name="export_230418_0959" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="259">
   <si>
     <t>Дата оформления  заявления-квитанции</t>
   </si>
@@ -144,418 +144,448 @@
     <t xml:space="preserve"> НЦЭСМП МИНЗДРАВА РОССИИ ФГБУ</t>
   </si>
   <si>
+    <t xml:space="preserve"> Сформировано   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ЕМП . .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Спектрометры эмиссионные с индуктивно связанной плазмой</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 078N2020802</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1000-003476</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Назначить АРМ (Л448) 448 Поверка БИК и ИК-спектрофотометров</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Назначить АРМ (Л448) - работа выполнена 448 Поверка БИК и ИК-спектрофотометров - протокол создан</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 448-1000-003476-2023-078N2020802</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Пригодно  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 49669-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10.04.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Выездные работы  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 448-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 02.02.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> С-МА/10-04-2023/238511336</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 09.04.2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Максимов И. К.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Q4 TASMAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ММЗ ВЫМПЕЛ АО</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Спектрометры оптические эмиссионные</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Q0154</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1000-007072</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 448-1000-007072-2023-Q0154</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 41185-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12.04.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 28.02.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> С-МА/12-04-2023/238511354</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11.04.2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RFM-730</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> МЕТРОСЕРВИС ООО</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ВБД АО</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Анализаторы сахара рефрактометрические</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ВХ07098</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1000-007386</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 448-1000-007386-2023-ВХ07098</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 26573-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13.04.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01.03.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> С-МА/13-04-2023/238788089</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12.04.2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NOVA 60A</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Анализаторы фотометрические</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 448-1000-007386-2023-12460916</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 24092-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> С-МА/13-04-2023/238788121</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RM50</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Плотномеры-рефрактометры</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> В835330174</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 448-1000-007386-2023-В835330174</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Непригодно</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 44178-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> И-МА/13-04-2023/238788078</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2100AN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ХИМКИНСКИЙ ВОДОКАНАЛ ОАО</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мутномеры универсальные</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1000-008070</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 448-1000-008070-2023-031000006274</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 26091-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 06.04.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 06.03.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> С-МА/06-04-2023/238549030</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 05.04.2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ИСКРОЛАЙН-100</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ЛАБОРАТОРИЯ ИСПЫТАНИЙ И ИЗМЕРЕНИЙ ООО</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Спектрометры эмиссионные</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 072 15 06 00 068</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1000-009069</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 448-1000-009069-2023-072 15 06 00 068</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 47954-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30.03.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11.03.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> С-МА/30-03-2023/235279208</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 29.03.2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> КВАНТ.Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ФГБНУ ВИЛАР</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Спектрометры атомно-абсорбционные</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1000-009147</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 448-1000-009147-2023-104</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 49077-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 31.03.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13.03.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> С-МА/31-03-2023/235279249</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30.03.2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UV-1900</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> РЕТИНОИДЫ АО</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Спектрофотометры двухлучевые</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A12425750872 US</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1000-009547</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 448-1000-009547-2023-A12425750872 US</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 74689-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 29.03.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14.03.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> С-МА/29-03-2023/235279207</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 28.03.2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Quick Trace M-7600</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> РОСА ЗАО</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Анализаторы ртути</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> US19015014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1000-009666</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 448-1000-009666-2023-US19015014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 70640-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 07.04.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 448-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> С-МА/07-04-2023/237405986</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 06.04.2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Флюорат-02-3М</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ВНИИА ФГУП</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Анализаторы жидкости</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1000-009663</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Назначить АРМ (Л448) 448 Поверка флюориметров</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Назначить АРМ (Л448) - работа выполнена 448 Поверка флюориметров - протокол создан</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 448-1000-009663-2023-6889</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14093-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 03.04.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Внутренние работы</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> С-МА/03-04-2023/235602151</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 02.04.2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Флюорат-02-5М</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Анализаторы жидкости люминесцентно-фотометрические</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 448-1000-009663-2023-9826</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 54152-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> С-МА/03-04-2023/235602144</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> А1-ЕПМ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> КОАЛ ФАРМАНАЛИЗ ООО</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Поляриметры автоматические</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1000-012829</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 448-1000-012829-2023-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 31348-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 24.03.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> С-МА/10-04-2023/237890903</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Avatar Series</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Фурье-спектрометры инфракрасные</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AFP0400536</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 448-1000-012829-2023-AFP0400536</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17278-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> С-МА/10-04-2023/237890915</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Spectrum  100</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> МАКИЗ-ФАРМА ООО</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Принято АРШИНом   </t>
   </si>
   <si>
-    <t xml:space="preserve"> ЕМП . .</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Спектрометры эмиссионные с индуктивно связанной плазмой</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 078N2020802</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1000-003476</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Назначить АРМ (Л448) 448 Поверка БИК и ИК-спектрофотометров</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Назначить АРМ (Л448) - работа выполнена 448 Поверка БИК и ИК-спектрофотометров - протокол создан</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 448-1000-003476-2023-078N2020802</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Пригодно  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 49669-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10.04.2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Выездные работы  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 448-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 02.02.2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> С-МА/10-04-2023/238511336</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 09.04.2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Максимов И. К.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Q4 TASMAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ММЗ ВЫМПЕЛ АО</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Сформировано   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Спектрометры оптические эмиссионные</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Q0154</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1000-007072</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 448-1000-007072-2023-Q0154</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 41185-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12.04.2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 28.02.2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> С-МА/12-04-2023/238511354</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 11.04.2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RFM-730</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> МЕТРОСЕРВИС ООО</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ВБД АО</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Анализаторы сахара рефрактометрические</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ВХ07098</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1000-007386</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 448-1000-007386-2023-ВХ07098</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 26573-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 13.04.2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 01.03.2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> С-МА/13-04-2023/238788089</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12.04.2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NOVA 60A</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Анализаторы фотометрические</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 448-1000-007386-2023-12460916</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 24092-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> С-МА/13-04-2023/238788121</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RM50</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Плотномеры-рефрактометры</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> В835330174</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 448-1000-007386-2023-В835330174</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Непригодно</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 44178-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> И-МА/13-04-2023/238788078</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2100AN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ХИМКИНСКИЙ ВОДОКАНАЛ ОАО</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Мутномеры универсальные</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1000-008070</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 448-1000-008070-2023-031000006274</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 26091-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 06.04.2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 06.03.2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> С-МА/06-04-2023/238549030</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 05.04.2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ИСКРОЛАЙН-100</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ЛАБОРАТОРИЯ ИСПЫТАНИЙ И ИЗМЕРЕНИЙ ООО</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Спектрометры эмиссионные</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 072 15 06 00 068</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1000-009069</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 448-1000-009069-2023-072 15 06 00 068</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 47954-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 30.03.2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 11.03.2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> С-МА/30-03-2023/235279208</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 29.03.2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> КВАНТ.Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ФГБНУ ВИЛАР</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Спектрометры атомно-абсорбционные</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1000-009147</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 448-1000-009147-2023-104</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 49077-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 31.03.2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 13.03.2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> С-МА/31-03-2023/235279249</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 30.03.2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> UV-1900</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> РЕТИНОИДЫ АО</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Спектрофотометры двухлучевые</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> A12425750872 US</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1000-009547</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 448-1000-009547-2023-A12425750872 US</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 74689-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 29.03.2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 14.03.2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> С-МА/29-03-2023/235279207</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 28.03.2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Quick Trace M-7600</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> РОСА ЗАО</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Анализаторы ртути</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> US19015014</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1000-009666</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 448-1000-009666-2023-US19015014</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 70640-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 07.04.2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 448-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> С-МА/07-04-2023/237405986</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 06.04.2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Флюорат-02-3М</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ВНИИА ФГУП</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Анализаторы жидкости</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1000-009663</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Назначить АРМ (Л448) 448 Поверка флюориметров</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Назначить АРМ (Л448) - работа выполнена 448 Поверка флюориметров - протокол создан</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 448-1000-009663-2023-6889</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 14093-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 03.04.2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Внутренние работы</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> С-МА/03-04-2023/235602151</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 02.04.2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Флюорат-02-5М</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Анализаторы жидкости люминесцентно-фотометрические</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 448-1000-009663-2023-9826</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 54152-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> С-МА/03-04-2023/235602144</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> А1-ЕПМ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> КОАЛ ФАРМАНАЛИЗ ООО</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Поляриметры автоматические</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1000-012829</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 448-1000-012829-2023-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 31348-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 24.03.2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> С-МА/10-04-2023/237890903</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Avatar Series</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Фурье-спектрометры инфракрасные</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> AFP0400536</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 448-1000-012829-2023-AFP0400536</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 17278-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> С-МА/10-04-2023/237890915</t>
+    <t xml:space="preserve"> 1000-012903</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 448-1000-012903-2023-78827</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15950-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> С-МА/10-04-2023/239349905</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Unipol L1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 448-1000-012903-2023-33064</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 41276-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> С-МА/10-04-2023/239349900</t>
   </si>
   <si>
     <t xml:space="preserve"> Cary 630 FTIR</t>
@@ -720,7 +750,7 @@
     <t xml:space="preserve"> С-МА/10-04-2023/238535189</t>
   </si>
   <si>
-    <t xml:space="preserve"> 448-1000-015812-2023-700211</t>
+    <t xml:space="preserve"> 448-1000-015812-2023-0700211</t>
   </si>
   <si>
     <t xml:space="preserve"> С-МА/10-04-2023/238535204</t>
@@ -926,7 +956,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1106,12 +1136,6 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1273,13 +1297,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1601,18 +1621,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN28"/>
+  <dimension ref="A1:AN30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="10" max="10" width="52.7109375" customWidth="1"/>
-    <col min="17" max="17" width="19.85546875" customWidth="1"/>
-    <col min="22" max="22" width="35.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1878,7 +1891,7 @@
         <v>60</v>
       </c>
       <c r="G3" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="H3" t="s">
         <v>42</v>
@@ -1887,10 +1900,10 @@
         <v>43</v>
       </c>
       <c r="J3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3" t="s">
         <v>62</v>
-      </c>
-      <c r="K3" t="s">
-        <v>63</v>
       </c>
       <c r="L3" t="s">
         <v>43</v>
@@ -1908,7 +1921,7 @@
         <v>573576</v>
       </c>
       <c r="Q3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R3" t="s">
         <v>43</v>
@@ -1923,16 +1936,16 @@
         <v>48</v>
       </c>
       <c r="V3" t="s">
+        <v>64</v>
+      </c>
+      <c r="W3" t="s">
+        <v>50</v>
+      </c>
+      <c r="X3" t="s">
         <v>65</v>
       </c>
-      <c r="W3" t="s">
-        <v>50</v>
-      </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>66</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>67</v>
       </c>
       <c r="Z3" t="s">
         <v>53</v>
@@ -1953,7 +1966,7 @@
         <v>54</v>
       </c>
       <c r="AF3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AG3" t="s">
         <v>43</v>
@@ -1962,16 +1975,16 @@
         <v>573576</v>
       </c>
       <c r="AI3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL3" t="s">
         <v>69</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>70</v>
       </c>
       <c r="AM3" t="s">
         <v>50</v>
@@ -1980,369 +1993,369 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>44986</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="F4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4" t="s">
+        <v>74</v>
+      </c>
+      <c r="L4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4">
+        <v>10000</v>
+      </c>
+      <c r="O4" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4">
+        <v>573920</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>75</v>
+      </c>
+      <c r="R4" t="s">
+        <v>43</v>
+      </c>
+      <c r="S4" t="s">
+        <v>43</v>
+      </c>
+      <c r="T4" t="s">
+        <v>47</v>
+      </c>
+      <c r="U4" t="s">
+        <v>48</v>
+      </c>
+      <c r="V4" t="s">
+        <v>76</v>
+      </c>
+      <c r="W4" t="s">
+        <v>50</v>
+      </c>
+      <c r="X4" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA4">
+        <v>7713085659</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC4">
+        <v>7713399140</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH4">
+        <v>573920</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>44986</v>
+      </c>
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D5" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" s="5" t="s">
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="K4" s="5" t="s">
+      <c r="I5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K5">
+        <v>12460916</v>
+      </c>
+      <c r="L5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5">
+        <v>4894.68</v>
+      </c>
+      <c r="O5" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5">
+        <v>573920</v>
+      </c>
+      <c r="Q5" t="s">
         <v>75</v>
       </c>
-      <c r="L4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="N4" s="5">
+      <c r="R5" t="s">
+        <v>43</v>
+      </c>
+      <c r="S5" t="s">
+        <v>43</v>
+      </c>
+      <c r="T5" t="s">
+        <v>47</v>
+      </c>
+      <c r="U5" t="s">
+        <v>48</v>
+      </c>
+      <c r="V5" t="s">
+        <v>84</v>
+      </c>
+      <c r="W5" t="s">
+        <v>50</v>
+      </c>
+      <c r="X5" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA5">
+        <v>7713085659</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC5">
+        <v>7713399140</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH5">
+        <v>573920</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>44986</v>
+      </c>
+      <c r="B6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K6" t="s">
+        <v>89</v>
+      </c>
+      <c r="L6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6">
         <v>10000</v>
       </c>
-      <c r="O4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="P4" s="5">
+      <c r="O6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6">
         <v>573920</v>
       </c>
-      <c r="Q4" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="T4" s="5" t="s">
+      <c r="Q6" t="s">
+        <v>75</v>
+      </c>
+      <c r="R6" t="s">
+        <v>43</v>
+      </c>
+      <c r="S6" t="s">
+        <v>43</v>
+      </c>
+      <c r="T6" t="s">
         <v>47</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="U6" t="s">
         <v>48</v>
       </c>
-      <c r="V4" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="W4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="X4" s="5" t="s">
+      <c r="V6" t="s">
+        <v>90</v>
+      </c>
+      <c r="W6" t="s">
+        <v>91</v>
+      </c>
+      <c r="X6" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y6" t="s">
         <v>78</v>
       </c>
-      <c r="Y4" s="5" t="s">
+      <c r="Z6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA6">
+        <v>7713085659</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC6">
+        <v>7713399140</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF6" t="s">
         <v>79</v>
       </c>
-      <c r="Z4" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA4" s="5">
-        <v>7713085659</v>
-      </c>
-      <c r="AB4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC4" s="5">
-        <v>7713399140</v>
-      </c>
-      <c r="AD4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE4" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF4" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH4" s="5">
+      <c r="AG6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH6">
         <v>573920</v>
       </c>
-      <c r="AI4" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="AJ4" s="5" t="s">
+      <c r="AI6" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK6" t="s">
         <v>78</v>
       </c>
-      <c r="AK4" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="AL4" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="AM4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="AN4" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>44986</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="K5" s="5">
-        <v>12460916</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="N5" s="5">
-        <v>4894.68</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="P5" s="5">
-        <v>573920</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="T5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="U5" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="V5" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="W5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="X5" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y5" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z5" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA5" s="5">
-        <v>7713085659</v>
-      </c>
-      <c r="AB5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC5" s="5">
-        <v>7713399140</v>
-      </c>
-      <c r="AD5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE5" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF5" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH5" s="5">
-        <v>573920</v>
-      </c>
-      <c r="AI5" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ5" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK5" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="AL5" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="AM5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="AN5" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>44986</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="N6" s="5">
-        <v>10000</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="P6" s="5">
-        <v>573920</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="R6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="T6" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="U6" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="V6" s="5" t="s">
+      <c r="AL6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM6" t="s">
         <v>91</v>
       </c>
-      <c r="W6" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="X6" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y6" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z6" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA6" s="5">
-        <v>7713085659</v>
-      </c>
-      <c r="AB6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC6" s="5">
-        <v>7713399140</v>
-      </c>
-      <c r="AD6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE6" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF6" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH6" s="5">
-        <v>573920</v>
-      </c>
-      <c r="AI6" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="AJ6" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK6" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="AL6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM6" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="AN6" s="5" t="s">
+      <c r="AN6" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2351,7 +2364,7 @@
         <v>44991</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C7" t="s">
         <v>38</v>
@@ -2360,10 +2373,10 @@
         <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G7" t="s">
         <v>41</v>
@@ -2375,7 +2388,7 @@
         <v>43</v>
       </c>
       <c r="J7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K7">
         <v>31000006274</v>
@@ -2396,7 +2409,7 @@
         <v>574667</v>
       </c>
       <c r="Q7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R7" t="s">
         <v>43</v>
@@ -2411,16 +2424,16 @@
         <v>48</v>
       </c>
       <c r="V7" t="s">
+        <v>98</v>
+      </c>
+      <c r="W7" t="s">
+        <v>50</v>
+      </c>
+      <c r="X7" t="s">
         <v>99</v>
       </c>
-      <c r="W7" t="s">
-        <v>50</v>
-      </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>100</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>101</v>
       </c>
       <c r="Z7" t="s">
         <v>53</v>
@@ -2441,7 +2454,7 @@
         <v>54</v>
       </c>
       <c r="AF7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AG7" t="s">
         <v>43</v>
@@ -2450,16 +2463,16 @@
         <v>574667</v>
       </c>
       <c r="AI7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL7" t="s">
         <v>103</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>100</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>101</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>104</v>
       </c>
       <c r="AM7" t="s">
         <v>50</v>
@@ -2473,7 +2486,7 @@
         <v>44998</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C8" t="s">
         <v>38</v>
@@ -2482,13 +2495,13 @@
         <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G8" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="H8" t="s">
         <v>42</v>
@@ -2497,10 +2510,10 @@
         <v>43</v>
       </c>
       <c r="J8" t="s">
+        <v>106</v>
+      </c>
+      <c r="K8" t="s">
         <v>107</v>
-      </c>
-      <c r="K8" t="s">
-        <v>108</v>
       </c>
       <c r="L8" t="s">
         <v>43</v>
@@ -2518,7 +2531,7 @@
         <v>575817</v>
       </c>
       <c r="Q8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R8" t="s">
         <v>43</v>
@@ -2533,16 +2546,16 @@
         <v>48</v>
       </c>
       <c r="V8" t="s">
+        <v>109</v>
+      </c>
+      <c r="W8" t="s">
+        <v>50</v>
+      </c>
+      <c r="X8" t="s">
         <v>110</v>
       </c>
-      <c r="W8" t="s">
-        <v>50</v>
-      </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>111</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>112</v>
       </c>
       <c r="Z8" t="s">
         <v>53</v>
@@ -2563,7 +2576,7 @@
         <v>54</v>
       </c>
       <c r="AF8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AG8" t="s">
         <v>43</v>
@@ -2572,16 +2585,16 @@
         <v>575817</v>
       </c>
       <c r="AI8" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL8" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>111</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>112</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>115</v>
       </c>
       <c r="AM8" t="s">
         <v>50</v>
@@ -2595,7 +2608,7 @@
         <v>44998</v>
       </c>
       <c r="B9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C9" t="s">
         <v>38</v>
@@ -2604,13 +2617,13 @@
         <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G9" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="H9" t="s">
         <v>42</v>
@@ -2619,7 +2632,7 @@
         <v>43</v>
       </c>
       <c r="J9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K9">
         <v>104</v>
@@ -2640,7 +2653,7 @@
         <v>575884</v>
       </c>
       <c r="Q9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R9" t="s">
         <v>43</v>
@@ -2655,16 +2668,16 @@
         <v>48</v>
       </c>
       <c r="V9" t="s">
+        <v>119</v>
+      </c>
+      <c r="W9" t="s">
+        <v>50</v>
+      </c>
+      <c r="X9" t="s">
         <v>120</v>
       </c>
-      <c r="W9" t="s">
-        <v>50</v>
-      </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>121</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>122</v>
       </c>
       <c r="Z9" t="s">
         <v>53</v>
@@ -2685,7 +2698,7 @@
         <v>54</v>
       </c>
       <c r="AF9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AG9" t="s">
         <v>43</v>
@@ -2694,16 +2707,16 @@
         <v>575884</v>
       </c>
       <c r="AI9" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>121</v>
+      </c>
+      <c r="AL9" t="s">
         <v>124</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>121</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>122</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>125</v>
       </c>
       <c r="AM9" t="s">
         <v>50</v>
@@ -2717,7 +2730,7 @@
         <v>44999</v>
       </c>
       <c r="B10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C10" t="s">
         <v>38</v>
@@ -2726,13 +2739,13 @@
         <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G10" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="H10" t="s">
         <v>42</v>
@@ -2741,10 +2754,10 @@
         <v>43</v>
       </c>
       <c r="J10" t="s">
+        <v>127</v>
+      </c>
+      <c r="K10" t="s">
         <v>128</v>
-      </c>
-      <c r="K10" t="s">
-        <v>129</v>
       </c>
       <c r="L10" t="s">
         <v>43</v>
@@ -2762,7 +2775,7 @@
         <v>576270</v>
       </c>
       <c r="Q10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R10" t="s">
         <v>43</v>
@@ -2777,16 +2790,16 @@
         <v>48</v>
       </c>
       <c r="V10" t="s">
+        <v>130</v>
+      </c>
+      <c r="W10" t="s">
+        <v>50</v>
+      </c>
+      <c r="X10" t="s">
         <v>131</v>
       </c>
-      <c r="W10" t="s">
-        <v>50</v>
-      </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>132</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>133</v>
       </c>
       <c r="Z10" t="s">
         <v>53</v>
@@ -2807,7 +2820,7 @@
         <v>54</v>
       </c>
       <c r="AF10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AG10" t="s">
         <v>43</v>
@@ -2816,16 +2829,16 @@
         <v>576270</v>
       </c>
       <c r="AI10" t="s">
+        <v>134</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>131</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>132</v>
+      </c>
+      <c r="AL10" t="s">
         <v>135</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>132</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>133</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>136</v>
       </c>
       <c r="AM10" t="s">
         <v>50</v>
@@ -2834,125 +2847,125 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>44999</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
         <v>137</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" t="s">
+        <v>137</v>
+      </c>
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" t="s">
         <v>138</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J11" s="3" t="s">
+      <c r="K11" t="s">
         <v>139</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="L11" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" t="s">
+        <v>43</v>
+      </c>
+      <c r="N11">
+        <v>4450</v>
+      </c>
+      <c r="O11" t="s">
+        <v>43</v>
+      </c>
+      <c r="P11">
+        <v>576368</v>
+      </c>
+      <c r="Q11" t="s">
         <v>140</v>
       </c>
-      <c r="L11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="N11" s="3">
-        <v>4450</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P11" s="3">
+      <c r="R11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S11" t="s">
+        <v>43</v>
+      </c>
+      <c r="T11" t="s">
+        <v>47</v>
+      </c>
+      <c r="U11" t="s">
+        <v>48</v>
+      </c>
+      <c r="V11" t="s">
+        <v>141</v>
+      </c>
+      <c r="W11" t="s">
+        <v>50</v>
+      </c>
+      <c r="X11" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA11">
+        <v>7732017453</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC11">
+        <v>7732017453</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH11">
         <v>576368</v>
       </c>
-      <c r="Q11" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="T11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="U11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="V11" s="3" t="s">
+      <c r="AI11" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ11" t="s">
         <v>142</v>
       </c>
-      <c r="W11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="X11" s="3" t="s">
+      <c r="AK11" t="s">
         <v>143</v>
       </c>
-      <c r="Y11" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="Z11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA11" s="3">
-        <v>7732017453</v>
-      </c>
-      <c r="AB11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC11" s="3">
-        <v>7732017453</v>
-      </c>
-      <c r="AD11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE11" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="AF11" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="AG11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH11" s="3">
-        <v>576368</v>
-      </c>
-      <c r="AI11" s="3" t="s">
+      <c r="AL11" t="s">
         <v>146</v>
       </c>
-      <c r="AJ11" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="AK11" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AL11" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AM11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AN11" s="3" t="s">
+      <c r="AM11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN11" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2961,7 +2974,7 @@
         <v>44999</v>
       </c>
       <c r="B12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C12" t="s">
         <v>38</v>
@@ -2970,13 +2983,13 @@
         <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G12" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="H12" t="s">
         <v>42</v>
@@ -2985,7 +2998,7 @@
         <v>43</v>
       </c>
       <c r="J12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K12">
         <v>6889</v>
@@ -3006,34 +3019,34 @@
         <v>576410</v>
       </c>
       <c r="Q12" t="s">
+        <v>150</v>
+      </c>
+      <c r="R12" t="s">
+        <v>43</v>
+      </c>
+      <c r="S12" t="s">
+        <v>43</v>
+      </c>
+      <c r="T12" t="s">
         <v>151</v>
       </c>
-      <c r="R12" t="s">
-        <v>43</v>
-      </c>
-      <c r="S12" t="s">
-        <v>43</v>
-      </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
         <v>152</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>153</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
+        <v>50</v>
+      </c>
+      <c r="X12" t="s">
         <v>154</v>
       </c>
-      <c r="W12" t="s">
-        <v>50</v>
-      </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>155</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>156</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>157</v>
       </c>
       <c r="AA12">
         <v>7707074137</v>
@@ -3051,7 +3064,7 @@
         <v>54</v>
       </c>
       <c r="AF12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AG12" t="s">
         <v>43</v>
@@ -3060,16 +3073,16 @@
         <v>576410</v>
       </c>
       <c r="AI12" t="s">
+        <v>157</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>154</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>155</v>
+      </c>
+      <c r="AL12" t="s">
         <v>158</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>155</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>156</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>159</v>
       </c>
       <c r="AM12" t="s">
         <v>50</v>
@@ -3083,7 +3096,7 @@
         <v>44999</v>
       </c>
       <c r="B13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C13" t="s">
         <v>38</v>
@@ -3092,13 +3105,13 @@
         <v>39</v>
       </c>
       <c r="E13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G13" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="H13" t="s">
         <v>42</v>
@@ -3107,7 +3120,7 @@
         <v>43</v>
       </c>
       <c r="J13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K13">
         <v>9826</v>
@@ -3128,34 +3141,34 @@
         <v>576410</v>
       </c>
       <c r="Q13" t="s">
+        <v>150</v>
+      </c>
+      <c r="R13" t="s">
+        <v>43</v>
+      </c>
+      <c r="S13" t="s">
+        <v>43</v>
+      </c>
+      <c r="T13" t="s">
         <v>151</v>
       </c>
-      <c r="R13" t="s">
-        <v>43</v>
-      </c>
-      <c r="S13" t="s">
-        <v>43</v>
-      </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
         <v>152</v>
       </c>
-      <c r="U13" t="s">
-        <v>153</v>
-      </c>
       <c r="V13" t="s">
+        <v>161</v>
+      </c>
+      <c r="W13" t="s">
+        <v>50</v>
+      </c>
+      <c r="X13" t="s">
         <v>162</v>
       </c>
-      <c r="W13" t="s">
-        <v>50</v>
-      </c>
-      <c r="X13" t="s">
-        <v>163</v>
-      </c>
       <c r="Y13" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z13" t="s">
         <v>156</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>157</v>
       </c>
       <c r="AA13">
         <v>7707074137</v>
@@ -3173,7 +3186,7 @@
         <v>54</v>
       </c>
       <c r="AF13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AG13" t="s">
         <v>43</v>
@@ -3182,16 +3195,16 @@
         <v>576410</v>
       </c>
       <c r="AI13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AJ13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AK13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AL13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AM13" t="s">
         <v>50</v>
@@ -3205,7 +3218,7 @@
         <v>45009</v>
       </c>
       <c r="B14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C14" t="s">
         <v>38</v>
@@ -3214,10 +3227,10 @@
         <v>39</v>
       </c>
       <c r="E14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G14" t="s">
         <v>41</v>
@@ -3229,7 +3242,7 @@
         <v>43</v>
       </c>
       <c r="J14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K14">
         <v>22</v>
@@ -3250,7 +3263,7 @@
         <v>579817</v>
       </c>
       <c r="Q14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="R14" t="s">
         <v>43</v>
@@ -3265,13 +3278,13 @@
         <v>48</v>
       </c>
       <c r="V14" t="s">
+        <v>168</v>
+      </c>
+      <c r="W14" t="s">
+        <v>50</v>
+      </c>
+      <c r="X14" t="s">
         <v>169</v>
-      </c>
-      <c r="W14" t="s">
-        <v>50</v>
-      </c>
-      <c r="X14" t="s">
-        <v>170</v>
       </c>
       <c r="Y14" t="s">
         <v>52</v>
@@ -3295,7 +3308,7 @@
         <v>54</v>
       </c>
       <c r="AF14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AG14" t="s">
         <v>43</v>
@@ -3304,10 +3317,10 @@
         <v>579817</v>
       </c>
       <c r="AI14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AJ14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AK14" t="s">
         <v>52</v>
@@ -3327,7 +3340,7 @@
         <v>45009</v>
       </c>
       <c r="B15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C15" t="s">
         <v>38</v>
@@ -3336,10 +3349,10 @@
         <v>39</v>
       </c>
       <c r="E15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G15" t="s">
         <v>41</v>
@@ -3351,10 +3364,10 @@
         <v>43</v>
       </c>
       <c r="J15" t="s">
+        <v>173</v>
+      </c>
+      <c r="K15" t="s">
         <v>174</v>
-      </c>
-      <c r="K15" t="s">
-        <v>175</v>
       </c>
       <c r="L15" t="s">
         <v>43</v>
@@ -3372,7 +3385,7 @@
         <v>579817</v>
       </c>
       <c r="Q15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="R15" t="s">
         <v>43</v>
@@ -3387,13 +3400,13 @@
         <v>48</v>
       </c>
       <c r="V15" t="s">
+        <v>175</v>
+      </c>
+      <c r="W15" t="s">
+        <v>50</v>
+      </c>
+      <c r="X15" t="s">
         <v>176</v>
-      </c>
-      <c r="W15" t="s">
-        <v>50</v>
-      </c>
-      <c r="X15" t="s">
-        <v>177</v>
       </c>
       <c r="Y15" t="s">
         <v>52</v>
@@ -3417,7 +3430,7 @@
         <v>54</v>
       </c>
       <c r="AF15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AG15" t="s">
         <v>43</v>
@@ -3426,10 +3439,10 @@
         <v>579817</v>
       </c>
       <c r="AI15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AJ15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AK15" t="s">
         <v>52</v>
@@ -3446,10 +3459,10 @@
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>45012</v>
+        <v>45009</v>
       </c>
       <c r="B16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C16" t="s">
         <v>38</v>
@@ -3458,13 +3471,13 @@
         <v>39</v>
       </c>
       <c r="E16" t="s">
+        <v>179</v>
+      </c>
+      <c r="F16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G16" t="s">
         <v>180</v>
-      </c>
-      <c r="F16" t="s">
-        <v>180</v>
-      </c>
-      <c r="G16" t="s">
-        <v>61</v>
       </c>
       <c r="H16" t="s">
         <v>42</v>
@@ -3473,28 +3486,28 @@
         <v>43</v>
       </c>
       <c r="J16" t="s">
-        <v>174</v>
-      </c>
-      <c r="K16" t="s">
+        <v>173</v>
+      </c>
+      <c r="K16">
+        <v>78827</v>
+      </c>
+      <c r="L16" t="s">
+        <v>43</v>
+      </c>
+      <c r="M16" t="s">
+        <v>43</v>
+      </c>
+      <c r="N16">
+        <v>11200</v>
+      </c>
+      <c r="O16" t="s">
+        <v>43</v>
+      </c>
+      <c r="P16">
+        <v>579905</v>
+      </c>
+      <c r="Q16" t="s">
         <v>181</v>
-      </c>
-      <c r="L16" t="s">
-        <v>43</v>
-      </c>
-      <c r="M16" t="s">
-        <v>43</v>
-      </c>
-      <c r="N16">
-        <v>10640</v>
-      </c>
-      <c r="O16" t="s">
-        <v>43</v>
-      </c>
-      <c r="P16">
-        <v>580168</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>182</v>
       </c>
       <c r="R16" t="s">
         <v>43</v>
@@ -3509,28 +3522,28 @@
         <v>48</v>
       </c>
       <c r="V16" t="s">
+        <v>182</v>
+      </c>
+      <c r="W16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X16" t="s">
         <v>183</v>
       </c>
-      <c r="W16" t="s">
-        <v>50</v>
-      </c>
-      <c r="X16" t="s">
-        <v>184</v>
-      </c>
       <c r="Y16" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="Z16" t="s">
         <v>53</v>
       </c>
       <c r="AA16">
-        <v>7714759967</v>
+        <v>7722767217</v>
       </c>
       <c r="AB16" t="s">
         <v>43</v>
       </c>
       <c r="AC16">
-        <v>7714759967</v>
+        <v>7722767217</v>
       </c>
       <c r="AD16" t="s">
         <v>43</v>
@@ -3539,25 +3552,25 @@
         <v>54</v>
       </c>
       <c r="AF16" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="AG16" t="s">
         <v>43</v>
       </c>
       <c r="AH16">
-        <v>580168</v>
+        <v>579905</v>
       </c>
       <c r="AI16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AJ16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AK16" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="AL16" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="AM16" t="s">
         <v>50</v>
@@ -3568,10 +3581,10 @@
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>45012</v>
+        <v>45009</v>
       </c>
       <c r="B17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C17" t="s">
         <v>38</v>
@@ -3580,13 +3593,13 @@
         <v>39</v>
       </c>
       <c r="E17" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="F17" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="G17" t="s">
-        <v>61</v>
+        <v>180</v>
       </c>
       <c r="H17" t="s">
         <v>42</v>
@@ -3595,10 +3608,10 @@
         <v>43</v>
       </c>
       <c r="J17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="K17">
-        <v>2728</v>
+        <v>33064</v>
       </c>
       <c r="L17" t="s">
         <v>43</v>
@@ -3607,16 +3620,16 @@
         <v>43</v>
       </c>
       <c r="N17">
-        <v>4956.6400000000003</v>
+        <v>6750</v>
       </c>
       <c r="O17" t="s">
         <v>43</v>
       </c>
       <c r="P17">
-        <v>580296</v>
+        <v>579905</v>
       </c>
       <c r="Q17" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="R17" t="s">
         <v>43</v>
@@ -3625,34 +3638,34 @@
         <v>43</v>
       </c>
       <c r="T17" t="s">
-        <v>152</v>
+        <v>47</v>
       </c>
       <c r="U17" t="s">
-        <v>153</v>
+        <v>48</v>
       </c>
       <c r="V17" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="W17" t="s">
         <v>50</v>
       </c>
       <c r="X17" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="Y17" t="s">
-        <v>156</v>
+        <v>52</v>
       </c>
       <c r="Z17" t="s">
-        <v>157</v>
+        <v>53</v>
       </c>
       <c r="AA17">
-        <v>7717149663</v>
+        <v>7722767217</v>
       </c>
       <c r="AB17" t="s">
         <v>43</v>
       </c>
       <c r="AC17">
-        <v>7717149663</v>
+        <v>7722767217</v>
       </c>
       <c r="AD17" t="s">
         <v>43</v>
@@ -3661,25 +3674,25 @@
         <v>54</v>
       </c>
       <c r="AF17" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="AG17" t="s">
         <v>43</v>
       </c>
       <c r="AH17">
-        <v>580296</v>
+        <v>579905</v>
       </c>
       <c r="AI17" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AJ17" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AK17" t="s">
-        <v>156</v>
+        <v>52</v>
       </c>
       <c r="AL17" t="s">
-        <v>159</v>
+        <v>57</v>
       </c>
       <c r="AM17" t="s">
         <v>50</v>
@@ -3690,10 +3703,10 @@
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>45013</v>
+        <v>45012</v>
       </c>
       <c r="B18" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C18" t="s">
         <v>38</v>
@@ -3702,13 +3715,13 @@
         <v>39</v>
       </c>
       <c r="E18" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F18" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G18" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="H18" t="s">
         <v>42</v>
@@ -3717,10 +3730,10 @@
         <v>43</v>
       </c>
       <c r="J18" t="s">
-        <v>195</v>
-      </c>
-      <c r="K18">
-        <v>514</v>
+        <v>173</v>
+      </c>
+      <c r="K18" t="s">
+        <v>191</v>
       </c>
       <c r="L18" t="s">
         <v>43</v>
@@ -3729,16 +3742,16 @@
         <v>43</v>
       </c>
       <c r="N18">
-        <v>6750</v>
+        <v>10640</v>
       </c>
       <c r="O18" t="s">
         <v>43</v>
       </c>
       <c r="P18">
-        <v>580926</v>
+        <v>580168</v>
       </c>
       <c r="Q18" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="R18" t="s">
         <v>43</v>
@@ -3753,28 +3766,28 @@
         <v>48</v>
       </c>
       <c r="V18" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="W18" t="s">
         <v>50</v>
       </c>
       <c r="X18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Y18" t="s">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="Z18" t="s">
-        <v>157</v>
+        <v>53</v>
       </c>
       <c r="AA18">
-        <v>7802312751</v>
+        <v>7714759967</v>
       </c>
       <c r="AB18" t="s">
         <v>43</v>
       </c>
       <c r="AC18">
-        <v>7802312751</v>
+        <v>7714759967</v>
       </c>
       <c r="AD18" t="s">
         <v>43</v>
@@ -3783,25 +3796,25 @@
         <v>54</v>
       </c>
       <c r="AF18" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="AG18" t="s">
         <v>43</v>
       </c>
       <c r="AH18">
-        <v>580926</v>
+        <v>580168</v>
       </c>
       <c r="AI18" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AJ18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="AK18" t="s">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="AL18" t="s">
-        <v>202</v>
+        <v>103</v>
       </c>
       <c r="AM18" t="s">
         <v>50</v>
@@ -3812,10 +3825,10 @@
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>45013</v>
+        <v>45012</v>
       </c>
       <c r="B19" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C19" t="s">
         <v>38</v>
@@ -3824,13 +3837,13 @@
         <v>39</v>
       </c>
       <c r="E19" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F19" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="G19" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="H19" t="s">
         <v>42</v>
@@ -3839,10 +3852,10 @@
         <v>43</v>
       </c>
       <c r="J19" t="s">
-        <v>195</v>
+        <v>149</v>
       </c>
       <c r="K19">
-        <v>515</v>
+        <v>2728</v>
       </c>
       <c r="L19" t="s">
         <v>43</v>
@@ -3851,16 +3864,16 @@
         <v>43</v>
       </c>
       <c r="N19">
-        <v>6750</v>
+        <v>4956.6400000000003</v>
       </c>
       <c r="O19" t="s">
         <v>43</v>
       </c>
       <c r="P19">
-        <v>580926</v>
+        <v>580296</v>
       </c>
       <c r="Q19" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="R19" t="s">
         <v>43</v>
@@ -3869,34 +3882,34 @@
         <v>43</v>
       </c>
       <c r="T19" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="U19" t="s">
-        <v>48</v>
+        <v>152</v>
       </c>
       <c r="V19" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="W19" t="s">
         <v>50</v>
       </c>
       <c r="X19" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Y19" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
       <c r="Z19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AA19">
-        <v>7802312751</v>
+        <v>7717149663</v>
       </c>
       <c r="AB19" t="s">
         <v>43</v>
       </c>
       <c r="AC19">
-        <v>7802312751</v>
+        <v>7717149663</v>
       </c>
       <c r="AD19" t="s">
         <v>43</v>
@@ -3905,25 +3918,25 @@
         <v>54</v>
       </c>
       <c r="AF19" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="AG19" t="s">
         <v>43</v>
       </c>
       <c r="AH19">
-        <v>580926</v>
+        <v>580296</v>
       </c>
       <c r="AI19" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AJ19" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AK19" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
       <c r="AL19" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="AM19" t="s">
         <v>50</v>
@@ -3934,10 +3947,10 @@
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>45015</v>
+        <v>45013</v>
       </c>
       <c r="B20" t="s">
-        <v>160</v>
+        <v>203</v>
       </c>
       <c r="C20" t="s">
         <v>38</v>
@@ -3946,13 +3959,13 @@
         <v>39</v>
       </c>
       <c r="E20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G20" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="H20" t="s">
         <v>42</v>
@@ -3961,10 +3974,10 @@
         <v>43</v>
       </c>
       <c r="J20" t="s">
-        <v>161</v>
+        <v>205</v>
       </c>
       <c r="K20">
-        <v>8417</v>
+        <v>514</v>
       </c>
       <c r="L20" t="s">
         <v>43</v>
@@ -3973,52 +3986,52 @@
         <v>43</v>
       </c>
       <c r="N20">
-        <v>4956.6400000000003</v>
+        <v>6750</v>
       </c>
       <c r="O20" t="s">
         <v>43</v>
       </c>
       <c r="P20">
-        <v>581672</v>
+        <v>580926</v>
       </c>
       <c r="Q20" t="s">
+        <v>206</v>
+      </c>
+      <c r="R20" t="s">
+        <v>43</v>
+      </c>
+      <c r="S20" t="s">
+        <v>43</v>
+      </c>
+      <c r="T20" t="s">
+        <v>47</v>
+      </c>
+      <c r="U20" t="s">
+        <v>48</v>
+      </c>
+      <c r="V20" t="s">
         <v>207</v>
       </c>
-      <c r="R20" t="s">
-        <v>43</v>
-      </c>
-      <c r="S20" t="s">
-        <v>43</v>
-      </c>
-      <c r="T20" t="s">
-        <v>152</v>
-      </c>
-      <c r="U20" t="s">
-        <v>153</v>
-      </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
+        <v>50</v>
+      </c>
+      <c r="X20" t="s">
         <v>208</v>
       </c>
-      <c r="W20" t="s">
-        <v>50</v>
-      </c>
-      <c r="X20" t="s">
-        <v>163</v>
-      </c>
       <c r="Y20" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z20" t="s">
         <v>156</v>
       </c>
-      <c r="Z20" t="s">
-        <v>157</v>
-      </c>
       <c r="AA20">
-        <v>7701984274</v>
+        <v>7802312751</v>
       </c>
       <c r="AB20" t="s">
         <v>43</v>
       </c>
       <c r="AC20">
-        <v>7734191827</v>
+        <v>7802312751</v>
       </c>
       <c r="AD20" t="s">
         <v>43</v>
@@ -4027,25 +4040,25 @@
         <v>54</v>
       </c>
       <c r="AF20" t="s">
-        <v>112</v>
+        <v>210</v>
       </c>
       <c r="AG20" t="s">
         <v>43</v>
       </c>
       <c r="AH20">
-        <v>581672</v>
+        <v>580926</v>
       </c>
       <c r="AI20" t="s">
+        <v>211</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>208</v>
+      </c>
+      <c r="AK20" t="s">
         <v>209</v>
       </c>
-      <c r="AJ20" t="s">
-        <v>163</v>
-      </c>
-      <c r="AK20" t="s">
-        <v>156</v>
-      </c>
       <c r="AL20" t="s">
-        <v>159</v>
+        <v>212</v>
       </c>
       <c r="AM20" t="s">
         <v>50</v>
@@ -4056,10 +4069,10 @@
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>45015</v>
+        <v>45013</v>
       </c>
       <c r="B21" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C21" t="s">
         <v>38</v>
@@ -4068,13 +4081,13 @@
         <v>39</v>
       </c>
       <c r="E21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G21" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="H21" t="s">
         <v>42</v>
@@ -4083,10 +4096,10 @@
         <v>43</v>
       </c>
       <c r="J21" t="s">
-        <v>150</v>
+        <v>205</v>
       </c>
       <c r="K21">
-        <v>5628</v>
+        <v>515</v>
       </c>
       <c r="L21" t="s">
         <v>43</v>
@@ -4095,16 +4108,16 @@
         <v>43</v>
       </c>
       <c r="N21">
-        <v>4956.6400000000003</v>
+        <v>6750</v>
       </c>
       <c r="O21" t="s">
         <v>43</v>
       </c>
       <c r="P21">
-        <v>581672</v>
+        <v>580926</v>
       </c>
       <c r="Q21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R21" t="s">
         <v>43</v>
@@ -4113,34 +4126,34 @@
         <v>43</v>
       </c>
       <c r="T21" t="s">
-        <v>152</v>
+        <v>47</v>
       </c>
       <c r="U21" t="s">
-        <v>153</v>
+        <v>48</v>
       </c>
       <c r="V21" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="W21" t="s">
         <v>50</v>
       </c>
       <c r="X21" t="s">
-        <v>155</v>
+        <v>208</v>
       </c>
       <c r="Y21" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z21" t="s">
         <v>156</v>
       </c>
-      <c r="Z21" t="s">
-        <v>157</v>
-      </c>
       <c r="AA21">
-        <v>7734191827</v>
+        <v>7802312751</v>
       </c>
       <c r="AB21" t="s">
         <v>43</v>
       </c>
       <c r="AC21">
-        <v>7734191827</v>
+        <v>7802312751</v>
       </c>
       <c r="AD21" t="s">
         <v>43</v>
@@ -4149,25 +4162,25 @@
         <v>54</v>
       </c>
       <c r="AF21" t="s">
-        <v>112</v>
+        <v>210</v>
       </c>
       <c r="AG21" t="s">
         <v>43</v>
       </c>
       <c r="AH21">
-        <v>581672</v>
+        <v>580926</v>
       </c>
       <c r="AI21" t="s">
+        <v>214</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>208</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>209</v>
+      </c>
+      <c r="AL21" t="s">
         <v>212</v>
-      </c>
-      <c r="AJ21" t="s">
-        <v>155</v>
-      </c>
-      <c r="AK21" t="s">
-        <v>156</v>
-      </c>
-      <c r="AL21" t="s">
-        <v>159</v>
       </c>
       <c r="AM21" t="s">
         <v>50</v>
@@ -4178,10 +4191,10 @@
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>45019</v>
+        <v>45015</v>
       </c>
       <c r="B22" t="s">
-        <v>213</v>
+        <v>159</v>
       </c>
       <c r="C22" t="s">
         <v>38</v>
@@ -4190,10 +4203,10 @@
         <v>39</v>
       </c>
       <c r="E22" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F22" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G22" t="s">
         <v>41</v>
@@ -4205,10 +4218,10 @@
         <v>43</v>
       </c>
       <c r="J22" t="s">
-        <v>215</v>
-      </c>
-      <c r="K22" t="s">
-        <v>216</v>
+        <v>160</v>
+      </c>
+      <c r="K22">
+        <v>8417</v>
       </c>
       <c r="L22" t="s">
         <v>43</v>
@@ -4217,13 +4230,13 @@
         <v>43</v>
       </c>
       <c r="N22">
-        <v>7110</v>
+        <v>4956.6400000000003</v>
       </c>
       <c r="O22" t="s">
         <v>43</v>
       </c>
       <c r="P22">
-        <v>582462</v>
+        <v>581672</v>
       </c>
       <c r="Q22" t="s">
         <v>217</v>
@@ -4235,10 +4248,10 @@
         <v>43</v>
       </c>
       <c r="T22" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="U22" t="s">
-        <v>48</v>
+        <v>152</v>
       </c>
       <c r="V22" t="s">
         <v>218</v>
@@ -4247,22 +4260,22 @@
         <v>50</v>
       </c>
       <c r="X22" t="s">
-        <v>219</v>
+        <v>162</v>
       </c>
       <c r="Y22" t="s">
-        <v>52</v>
+        <v>155</v>
       </c>
       <c r="Z22" t="s">
-        <v>53</v>
+        <v>156</v>
       </c>
       <c r="AA22">
-        <v>7702302492</v>
+        <v>7701984274</v>
       </c>
       <c r="AB22" t="s">
         <v>43</v>
       </c>
       <c r="AC22">
-        <v>7702302492</v>
+        <v>7734191827</v>
       </c>
       <c r="AD22" t="s">
         <v>43</v>
@@ -4271,25 +4284,25 @@
         <v>54</v>
       </c>
       <c r="AF22" t="s">
-        <v>156</v>
+        <v>111</v>
       </c>
       <c r="AG22" t="s">
         <v>43</v>
       </c>
       <c r="AH22">
-        <v>582462</v>
+        <v>581672</v>
       </c>
       <c r="AI22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AJ22" t="s">
-        <v>219</v>
+        <v>162</v>
       </c>
       <c r="AK22" t="s">
-        <v>52</v>
+        <v>155</v>
       </c>
       <c r="AL22" t="s">
-        <v>57</v>
+        <v>158</v>
       </c>
       <c r="AM22" t="s">
         <v>50</v>
@@ -4300,10 +4313,10 @@
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>45020</v>
+        <v>45015</v>
       </c>
       <c r="B23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C23" t="s">
         <v>38</v>
@@ -4312,10 +4325,10 @@
         <v>39</v>
       </c>
       <c r="E23" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="F23" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="G23" t="s">
         <v>41</v>
@@ -4327,10 +4340,10 @@
         <v>43</v>
       </c>
       <c r="J23" t="s">
-        <v>223</v>
+        <v>149</v>
       </c>
       <c r="K23">
-        <v>700212</v>
+        <v>5628</v>
       </c>
       <c r="L23" t="s">
         <v>43</v>
@@ -4339,16 +4352,16 @@
         <v>43</v>
       </c>
       <c r="N23">
-        <v>5132.16</v>
+        <v>4956.6400000000003</v>
       </c>
       <c r="O23" t="s">
         <v>43</v>
       </c>
       <c r="P23">
-        <v>583023</v>
+        <v>581672</v>
       </c>
       <c r="Q23" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="R23" t="s">
         <v>43</v>
@@ -4357,34 +4370,34 @@
         <v>43</v>
       </c>
       <c r="T23" t="s">
-        <v>225</v>
+        <v>151</v>
       </c>
       <c r="U23" t="s">
-        <v>226</v>
+        <v>152</v>
       </c>
       <c r="V23" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="W23" t="s">
         <v>50</v>
       </c>
       <c r="X23" t="s">
-        <v>228</v>
+        <v>154</v>
       </c>
       <c r="Y23" t="s">
-        <v>52</v>
+        <v>155</v>
       </c>
       <c r="Z23" t="s">
-        <v>53</v>
+        <v>156</v>
       </c>
       <c r="AA23">
-        <v>3125008748</v>
+        <v>7734191827</v>
       </c>
       <c r="AB23" t="s">
         <v>43</v>
       </c>
       <c r="AC23">
-        <v>3125008748</v>
+        <v>7734191827</v>
       </c>
       <c r="AD23" t="s">
         <v>43</v>
@@ -4393,25 +4406,25 @@
         <v>54</v>
       </c>
       <c r="AF23" t="s">
-        <v>229</v>
+        <v>111</v>
       </c>
       <c r="AG23" t="s">
         <v>43</v>
       </c>
       <c r="AH23">
-        <v>583023</v>
+        <v>581672</v>
       </c>
       <c r="AI23" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AJ23" t="s">
-        <v>228</v>
+        <v>154</v>
       </c>
       <c r="AK23" t="s">
-        <v>52</v>
+        <v>155</v>
       </c>
       <c r="AL23" t="s">
-        <v>57</v>
+        <v>158</v>
       </c>
       <c r="AM23" t="s">
         <v>50</v>
@@ -4422,10 +4435,10 @@
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>45020</v>
+        <v>45019</v>
       </c>
       <c r="B24" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C24" t="s">
         <v>38</v>
@@ -4434,10 +4447,10 @@
         <v>39</v>
       </c>
       <c r="E24" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F24" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G24" t="s">
         <v>41</v>
@@ -4449,10 +4462,10 @@
         <v>43</v>
       </c>
       <c r="J24" t="s">
-        <v>223</v>
-      </c>
-      <c r="K24">
-        <v>700218</v>
+        <v>225</v>
+      </c>
+      <c r="K24" t="s">
+        <v>226</v>
       </c>
       <c r="L24" t="s">
         <v>43</v>
@@ -4461,16 +4474,16 @@
         <v>43</v>
       </c>
       <c r="N24">
-        <v>5132.16</v>
+        <v>7110</v>
       </c>
       <c r="O24" t="s">
         <v>43</v>
       </c>
       <c r="P24">
-        <v>583023</v>
+        <v>582462</v>
       </c>
       <c r="Q24" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="R24" t="s">
         <v>43</v>
@@ -4479,19 +4492,19 @@
         <v>43</v>
       </c>
       <c r="T24" t="s">
-        <v>225</v>
+        <v>47</v>
       </c>
       <c r="U24" t="s">
-        <v>226</v>
+        <v>48</v>
       </c>
       <c r="V24" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="W24" t="s">
         <v>50</v>
       </c>
       <c r="X24" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Y24" t="s">
         <v>52</v>
@@ -4500,13 +4513,13 @@
         <v>53</v>
       </c>
       <c r="AA24">
-        <v>3125008748</v>
+        <v>7702302492</v>
       </c>
       <c r="AB24" t="s">
         <v>43</v>
       </c>
       <c r="AC24">
-        <v>3125008748</v>
+        <v>7702302492</v>
       </c>
       <c r="AD24" t="s">
         <v>43</v>
@@ -4515,19 +4528,19 @@
         <v>54</v>
       </c>
       <c r="AF24" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH24">
+        <v>582462</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>230</v>
+      </c>
+      <c r="AJ24" t="s">
         <v>229</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH24">
-        <v>583023</v>
-      </c>
-      <c r="AI24" t="s">
-        <v>232</v>
-      </c>
-      <c r="AJ24" t="s">
-        <v>228</v>
       </c>
       <c r="AK24" t="s">
         <v>52</v>
@@ -4547,7 +4560,7 @@
         <v>45020</v>
       </c>
       <c r="B25" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="C25" t="s">
         <v>38</v>
@@ -4556,10 +4569,10 @@
         <v>39</v>
       </c>
       <c r="E25" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="F25" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="G25" t="s">
         <v>41</v>
@@ -4571,10 +4584,10 @@
         <v>43</v>
       </c>
       <c r="J25" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="K25">
-        <v>700211</v>
+        <v>700212</v>
       </c>
       <c r="L25" t="s">
         <v>43</v>
@@ -4592,7 +4605,7 @@
         <v>583023</v>
       </c>
       <c r="Q25" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="R25" t="s">
         <v>43</v>
@@ -4601,19 +4614,19 @@
         <v>43</v>
       </c>
       <c r="T25" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="U25" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="V25" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="W25" t="s">
         <v>50</v>
       </c>
       <c r="X25" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="Y25" t="s">
         <v>52</v>
@@ -4637,7 +4650,7 @@
         <v>54</v>
       </c>
       <c r="AF25" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="AG25" t="s">
         <v>43</v>
@@ -4646,10 +4659,10 @@
         <v>583023</v>
       </c>
       <c r="AI25" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="AJ25" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="AK25" t="s">
         <v>52</v>
@@ -4666,10 +4679,10 @@
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>45022</v>
+        <v>45020</v>
       </c>
       <c r="B26" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="C26" t="s">
         <v>38</v>
@@ -4678,10 +4691,10 @@
         <v>39</v>
       </c>
       <c r="E26" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F26" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G26" t="s">
         <v>41</v>
@@ -4693,10 +4706,10 @@
         <v>43</v>
       </c>
       <c r="J26" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="K26">
-        <v>700219</v>
+        <v>700218</v>
       </c>
       <c r="L26" t="s">
         <v>43</v>
@@ -4705,37 +4718,37 @@
         <v>43</v>
       </c>
       <c r="N26">
-        <v>5702.4</v>
+        <v>5132.16</v>
       </c>
       <c r="O26" t="s">
         <v>43</v>
       </c>
       <c r="P26">
-        <v>583907</v>
+        <v>583023</v>
       </c>
       <c r="Q26" t="s">
+        <v>234</v>
+      </c>
+      <c r="R26" t="s">
+        <v>43</v>
+      </c>
+      <c r="S26" t="s">
+        <v>43</v>
+      </c>
+      <c r="T26" t="s">
+        <v>235</v>
+      </c>
+      <c r="U26" t="s">
         <v>236</v>
       </c>
-      <c r="R26" t="s">
-        <v>43</v>
-      </c>
-      <c r="S26" t="s">
-        <v>43</v>
-      </c>
-      <c r="T26" t="s">
-        <v>225</v>
-      </c>
-      <c r="U26" t="s">
-        <v>226</v>
-      </c>
       <c r="V26" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="W26" t="s">
         <v>50</v>
       </c>
       <c r="X26" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="Y26" t="s">
         <v>52</v>
@@ -4744,13 +4757,13 @@
         <v>53</v>
       </c>
       <c r="AA26">
-        <v>7734223028</v>
+        <v>3125008748</v>
       </c>
       <c r="AB26" t="s">
         <v>43</v>
       </c>
       <c r="AC26">
-        <v>7734223028</v>
+        <v>3125008748</v>
       </c>
       <c r="AD26" t="s">
         <v>43</v>
@@ -4759,19 +4772,19 @@
         <v>54</v>
       </c>
       <c r="AF26" t="s">
-        <v>101</v>
+        <v>239</v>
       </c>
       <c r="AG26" t="s">
         <v>43</v>
       </c>
       <c r="AH26">
-        <v>583907</v>
+        <v>583023</v>
       </c>
       <c r="AI26" t="s">
+        <v>242</v>
+      </c>
+      <c r="AJ26" t="s">
         <v>238</v>
-      </c>
-      <c r="AJ26" t="s">
-        <v>228</v>
       </c>
       <c r="AK26" t="s">
         <v>52</v>
@@ -4788,10 +4801,10 @@
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>45023</v>
+        <v>45020</v>
       </c>
       <c r="B27" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="C27" t="s">
         <v>38</v>
@@ -4800,10 +4813,10 @@
         <v>39</v>
       </c>
       <c r="E27" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="F27" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="G27" t="s">
         <v>41</v>
@@ -4815,10 +4828,10 @@
         <v>43</v>
       </c>
       <c r="J27" t="s">
-        <v>195</v>
+        <v>233</v>
       </c>
       <c r="K27">
-        <v>582</v>
+        <v>700211</v>
       </c>
       <c r="L27" t="s">
         <v>43</v>
@@ -4827,16 +4840,16 @@
         <v>43</v>
       </c>
       <c r="N27">
-        <v>6750</v>
+        <v>5132.16</v>
       </c>
       <c r="O27" t="s">
         <v>43</v>
       </c>
       <c r="P27">
-        <v>584588</v>
+        <v>583023</v>
       </c>
       <c r="Q27" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="R27" t="s">
         <v>43</v>
@@ -4845,34 +4858,34 @@
         <v>43</v>
       </c>
       <c r="T27" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="U27" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="V27" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="W27" t="s">
         <v>50</v>
       </c>
       <c r="X27" t="s">
-        <v>198</v>
+        <v>238</v>
       </c>
       <c r="Y27" t="s">
-        <v>242</v>
+        <v>52</v>
       </c>
       <c r="Z27" t="s">
-        <v>157</v>
+        <v>53</v>
       </c>
       <c r="AA27">
-        <v>7734240986</v>
+        <v>3125008748</v>
       </c>
       <c r="AB27" t="s">
         <v>43</v>
       </c>
       <c r="AC27">
-        <v>7734240986</v>
+        <v>3125008748</v>
       </c>
       <c r="AD27" t="s">
         <v>43</v>
@@ -4881,25 +4894,25 @@
         <v>54</v>
       </c>
       <c r="AF27" t="s">
-        <v>144</v>
+        <v>239</v>
       </c>
       <c r="AG27" t="s">
         <v>43</v>
       </c>
       <c r="AH27">
-        <v>584588</v>
+        <v>583023</v>
       </c>
       <c r="AI27" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AJ27" t="s">
-        <v>198</v>
+        <v>238</v>
       </c>
       <c r="AK27" t="s">
-        <v>242</v>
+        <v>52</v>
       </c>
       <c r="AL27" t="s">
-        <v>244</v>
+        <v>57</v>
       </c>
       <c r="AM27" t="s">
         <v>50</v>
@@ -4910,10 +4923,10 @@
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>45029</v>
+        <v>45022</v>
       </c>
       <c r="B28" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="C28" t="s">
         <v>38</v>
@@ -4937,10 +4950,10 @@
         <v>43</v>
       </c>
       <c r="J28" t="s">
-        <v>195</v>
+        <v>233</v>
       </c>
       <c r="K28">
-        <v>261</v>
+        <v>700219</v>
       </c>
       <c r="L28" t="s">
         <v>43</v>
@@ -4949,13 +4962,13 @@
         <v>43</v>
       </c>
       <c r="N28">
-        <v>6750</v>
+        <v>5702.4</v>
       </c>
       <c r="O28" t="s">
         <v>43</v>
       </c>
       <c r="P28">
-        <v>585988</v>
+        <v>583907</v>
       </c>
       <c r="Q28" t="s">
         <v>246</v>
@@ -4967,10 +4980,10 @@
         <v>43</v>
       </c>
       <c r="T28" t="s">
-        <v>47</v>
+        <v>235</v>
       </c>
       <c r="U28" t="s">
-        <v>48</v>
+        <v>236</v>
       </c>
       <c r="V28" t="s">
         <v>247</v>
@@ -4979,22 +4992,22 @@
         <v>50</v>
       </c>
       <c r="X28" t="s">
-        <v>198</v>
+        <v>238</v>
       </c>
       <c r="Y28" t="s">
-        <v>242</v>
+        <v>52</v>
       </c>
       <c r="Z28" t="s">
-        <v>157</v>
+        <v>53</v>
       </c>
       <c r="AA28">
-        <v>411032048</v>
+        <v>7734223028</v>
       </c>
       <c r="AB28" t="s">
         <v>43</v>
       </c>
       <c r="AC28">
-        <v>411032048</v>
+        <v>7734223028</v>
       </c>
       <c r="AD28" t="s">
         <v>43</v>
@@ -5003,30 +5016,274 @@
         <v>54</v>
       </c>
       <c r="AF28" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="AG28" t="s">
         <v>43</v>
       </c>
       <c r="AH28">
-        <v>585988</v>
+        <v>583907</v>
       </c>
       <c r="AI28" t="s">
         <v>248</v>
       </c>
       <c r="AJ28" t="s">
-        <v>198</v>
+        <v>238</v>
       </c>
       <c r="AK28" t="s">
-        <v>242</v>
+        <v>52</v>
       </c>
       <c r="AL28" t="s">
-        <v>244</v>
+        <v>57</v>
       </c>
       <c r="AM28" t="s">
         <v>50</v>
       </c>
       <c r="AN28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>45023</v>
+      </c>
+      <c r="B29" t="s">
+        <v>203</v>
+      </c>
+      <c r="C29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" t="s">
+        <v>249</v>
+      </c>
+      <c r="F29" t="s">
+        <v>249</v>
+      </c>
+      <c r="G29" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29" t="s">
+        <v>42</v>
+      </c>
+      <c r="I29" t="s">
+        <v>43</v>
+      </c>
+      <c r="J29" t="s">
+        <v>205</v>
+      </c>
+      <c r="K29">
+        <v>582</v>
+      </c>
+      <c r="L29" t="s">
+        <v>43</v>
+      </c>
+      <c r="M29" t="s">
+        <v>43</v>
+      </c>
+      <c r="N29">
+        <v>6750</v>
+      </c>
+      <c r="O29" t="s">
+        <v>43</v>
+      </c>
+      <c r="P29">
+        <v>584588</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>250</v>
+      </c>
+      <c r="R29" t="s">
+        <v>43</v>
+      </c>
+      <c r="S29" t="s">
+        <v>43</v>
+      </c>
+      <c r="T29" t="s">
+        <v>235</v>
+      </c>
+      <c r="U29" t="s">
+        <v>236</v>
+      </c>
+      <c r="V29" t="s">
+        <v>251</v>
+      </c>
+      <c r="W29" t="s">
+        <v>50</v>
+      </c>
+      <c r="X29" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>252</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA29">
+        <v>7734240986</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC29">
+        <v>7734240986</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>143</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH29">
+        <v>584588</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>253</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>208</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>252</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>254</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>45029</v>
+      </c>
+      <c r="B30" t="s">
+        <v>203</v>
+      </c>
+      <c r="C30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" t="s">
+        <v>255</v>
+      </c>
+      <c r="F30" t="s">
+        <v>255</v>
+      </c>
+      <c r="G30" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30" t="s">
+        <v>42</v>
+      </c>
+      <c r="I30" t="s">
+        <v>43</v>
+      </c>
+      <c r="J30" t="s">
+        <v>205</v>
+      </c>
+      <c r="K30">
+        <v>261</v>
+      </c>
+      <c r="L30" t="s">
+        <v>43</v>
+      </c>
+      <c r="M30" t="s">
+        <v>43</v>
+      </c>
+      <c r="N30">
+        <v>6750</v>
+      </c>
+      <c r="O30" t="s">
+        <v>43</v>
+      </c>
+      <c r="P30">
+        <v>585988</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>256</v>
+      </c>
+      <c r="R30" t="s">
+        <v>43</v>
+      </c>
+      <c r="S30" t="s">
+        <v>43</v>
+      </c>
+      <c r="T30" t="s">
+        <v>47</v>
+      </c>
+      <c r="U30" t="s">
+        <v>48</v>
+      </c>
+      <c r="V30" t="s">
+        <v>257</v>
+      </c>
+      <c r="W30" t="s">
+        <v>50</v>
+      </c>
+      <c r="X30" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>252</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA30">
+        <v>411032048</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC30">
+        <v>411032048</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH30">
+        <v>585988</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>258</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>208</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>252</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>254</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN30" t="s">
         <v>58</v>
       </c>
     </row>
